--- a/DiscreteEvaporator/InputDoc/Cond_Data.xlsx
+++ b/DiscreteEvaporator/InputDoc/Cond_Data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7420" yWindow="440" windowWidth="28720" windowHeight="17620" tabRatio="500"/>
+    <workbookView xWindow="4880" yWindow="980" windowWidth="28720" windowHeight="17620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="definition" sheetId="1" r:id="rId1"/>
@@ -44,12 +44,6 @@
     <t>fin thickness (m)</t>
   </si>
   <si>
-    <t>spacing between tubes in bank (m)</t>
-  </si>
-  <si>
-    <t>spacing between tubs in the longitudual direction (m)</t>
-  </si>
-  <si>
     <t>number of segments per tube in finite difference model</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
     <t>number of tubes in subcooling branch (circuit pattern model only)</t>
   </si>
   <si>
-    <t>number of high rows</t>
-  </si>
-  <si>
     <t>Frontal area [m2]</t>
   </si>
   <si>
@@ -135,16 +126,32 @@
   </si>
   <si>
     <t>Condenser</t>
+  </si>
+  <si>
+    <t>spacing between tubs in the longitudual direction (m) (P_l)</t>
+  </si>
+  <si>
+    <t>spacing between tubes in bank (m) (P_t)</t>
+  </si>
+  <si>
+    <t>number of banks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -170,9 +177,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,16 +460,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -469,20 +479,20 @@
         <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>8.4899999999999993E-3</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2.2549999999999999</v>
+        <v>0.61</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -490,14 +500,14 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3.2000000000000003E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>2.87E-2</v>
       </c>
       <c r="B6" t="s">
@@ -506,7 +516,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>1.016E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -514,7 +524,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>1.016E-4</v>
+        <v>1.2999999999999999E-4</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -522,18 +532,18 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>2.5399999999999999E-2</v>
+        <v>2.4211E-2</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>1.9050000000000001E-2</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -541,7 +551,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -549,63 +559,63 @@
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>2.0179999999999998</v>
+        <v>-1</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>1.375</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -613,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -621,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -629,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -637,79 +647,79 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>1.6000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>9.0000000000000006E-5</v>
+        <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>5.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -717,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -725,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -733,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -741,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -749,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -757,15 +767,15 @@
         <v>400</v>
       </c>
       <c r="D38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D39" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/DiscreteEvaporator/InputDoc/Cond_Data.xlsx
+++ b/DiscreteEvaporator/InputDoc/Cond_Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -461,7 +461,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
